--- a/resource_api/raporlar/dosyalar/sipKalanListesiExcell.xlsx
+++ b/resource_api/raporlar/dosyalar/sipKalanListesiExcell.xlsx
@@ -37,7 +37,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -51,16 +51,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0004FF00"/>
-        <bgColor rgb="0004FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
+      <patternFill patternType="solid"/>
     </fill>
   </fills>
   <borders count="2">
@@ -90,13 +81,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,26 +509,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Travertine Ledger</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ivory Light</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15,0x61,0x1,5</t>
+          <t>61,0x61,0x1,2</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>131.76</v>
+        <v>1920.04</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -546,21 +536,21 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>131.76</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>Üretim Tamamlanmıştır</t>
+          <t>Hiç Üretilmemiş</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1920.04</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="3">
@@ -571,21 +561,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>420.1</v>
+        <v>852.1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -593,21 +583,21 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>386.6</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3120</v>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>Üretilmesi Gerekiyor</t>
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>Hiç Üretilmemiş</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>33.5</v>
+        <v>852.1</v>
       </c>
       <c r="K3" t="n">
-        <v>270</v>
+        <v>4580</v>
       </c>
     </row>
   </sheetData>

--- a/resource_api/raporlar/dosyalar/sipKalanListesiExcell.xlsx
+++ b/resource_api/raporlar/dosyalar/sipKalanListesiExcell.xlsx
@@ -37,7 +37,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -48,6 +48,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -81,12 +87,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -519,16 +526,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>61,0x61,0x1,2</t>
+          <t>10,0xFreex2,0</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1920.04</v>
+        <v>864</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -536,50 +543,50 @@
         </is>
       </c>
       <c r="G2" t="n">
+        <v>400</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Üretilmesi Gerekiyor</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>464</v>
+      </c>
+      <c r="K2" t="n">
         <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Hiç Üretilmemiş</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1920.04</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5160</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Kalekim 1051</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Tile Adhesive</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>VariousxVariousxVarious</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>852.1</v>
+        <v>120</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Adet</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -588,16 +595,63 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>Hiç Üretilmemiş</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>852.1</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>4580</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VARxVARx3,0</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>Hiç Üretilmemiş</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
